--- a/zwnl-2022.xlsx
+++ b/zwnl-2022.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE78D487-E3AF-489F-988D-14FF2CC6815C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9DF34D-3FCC-43D6-89D9-DCDE9276EF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="2438" windowWidth="21502" windowHeight="12975" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="0" yWindow="2040" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
+    <sheet name="QD Consists" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'QD Consists'!$A$1:$G$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,8 +38,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{458412E3-3352-4E25-B833-8D7E3E798D17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Max 6 Vs-Rsd</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>Naam</t>
   </si>
@@ -122,12 +160,242 @@
 - 654 Rtd14
 - 3200 niet</t>
   </si>
+  <si>
+    <t>Kfh-Zlw</t>
+  </si>
+  <si>
+    <t>Kfh:
+- 2259
+- 5255/5252
+- 2244
+- 2450
+- 5050
+- 5157
+- 5152</t>
+  </si>
+  <si>
+    <t>Kfh-Ddr: (geen)</t>
+  </si>
+  <si>
+    <t>Ddr (rond 15:54):
+- 2261
+- 2457/2452
+- 5957
+- 6656
+- 7200
+- 7100 rijdt niet</t>
+  </si>
+  <si>
+    <t>Ddr-Zlw:
+- 6651 rijdt niet
+- 5954</t>
+  </si>
+  <si>
+    <t>Zlw:
+- 2246
+- 6653</t>
+  </si>
+  <si>
+    <t>HSL:
+- 939
+- 941
+- 946
+- 1152
+- 1157
+- 9364</t>
+  </si>
+  <si>
+    <t>Treinserie</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>Min bak</t>
+  </si>
+  <si>
+    <t>Max bak</t>
+  </si>
+  <si>
+    <t>Consists Class</t>
+  </si>
+  <si>
+    <t>Verhouding</t>
+  </si>
+  <si>
+    <t>500/600</t>
+  </si>
+  <si>
+    <t>ICRmh ICD</t>
+  </si>
+  <si>
+    <t>ICRmh</t>
+  </si>
+  <si>
+    <t>ICMm</t>
+  </si>
+  <si>
+    <t>VIRM</t>
+  </si>
+  <si>
+    <t>Lengte</t>
+  </si>
+  <si>
+    <t>NMBS MS75</t>
+  </si>
+  <si>
+    <t>ICMm, DDZ</t>
+  </si>
+  <si>
+    <t>0.50, 0.50</t>
+  </si>
+  <si>
+    <t>SLT</t>
+  </si>
+  <si>
+    <t>SNG</t>
+  </si>
+  <si>
+    <t>FLIRT</t>
+  </si>
+  <si>
+    <t>Rnet GTW 2/6, 2/8</t>
+  </si>
+  <si>
+    <t>Eurostar</t>
+  </si>
+  <si>
+    <t>ICRmh Bnl</t>
+  </si>
+  <si>
+    <t>Thalys</t>
+  </si>
+  <si>
+    <t>Passenger Intercity</t>
+  </si>
+  <si>
+    <t>Passenger Regional</t>
+  </si>
+  <si>
+    <t>Passenger Commuter</t>
+  </si>
+  <si>
+    <t>Passenger Fast</t>
+  </si>
+  <si>
+    <t>Passenger Scrap</t>
+  </si>
+  <si>
+    <t>Passenger International</t>
+  </si>
+  <si>
+    <t>Custom 1</t>
+  </si>
+  <si>
+    <t>Custom 2</t>
+  </si>
+  <si>
+    <t>Custom 3</t>
+  </si>
+  <si>
+    <t>Custom 4</t>
+  </si>
+  <si>
+    <t>Custom 5</t>
+  </si>
+  <si>
+    <t>6, 8</t>
+  </si>
+  <si>
+    <t>120, 220</t>
+  </si>
+  <si>
+    <t>Passenger Intercity, Custom 6</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Kfh-Rtd</t>
+  </si>
+  <si>
+    <t>Freight Wood</t>
+  </si>
+  <si>
+    <t>Kfh-Mvt/Br</t>
+  </si>
+  <si>
+    <t>Freight Container</t>
+  </si>
+  <si>
+    <t>Kfh-Zlw/Mdk</t>
+  </si>
+  <si>
+    <t>Freight Coal</t>
+  </si>
+  <si>
+    <t>Kfh-Sloe</t>
+  </si>
+  <si>
+    <t>Freight Livestock</t>
+  </si>
+  <si>
+    <t>Kfh-Esn</t>
+  </si>
+  <si>
+    <t>Kfh-Bd</t>
+  </si>
+  <si>
+    <t>Freight Paper</t>
+  </si>
+  <si>
+    <t>Zlw/Mdk-Bd</t>
+  </si>
+  <si>
+    <t>Custom 8</t>
+  </si>
+  <si>
+    <t>Sloe-Esn</t>
+  </si>
+  <si>
+    <t>Freight Gravel</t>
+  </si>
+  <si>
+    <t>Sloe-Bd</t>
+  </si>
+  <si>
+    <t>Freight Nuclear</t>
+  </si>
+  <si>
+    <t>Esn-Bd</t>
+  </si>
+  <si>
+    <t>Freight Oil</t>
+  </si>
+  <si>
+    <t>Freight Scrap</t>
+  </si>
+  <si>
+    <t>TODO PCC Shuttle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +410,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -170,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -179,6 +460,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,105 +781,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4020EACE-717F-4B6E-B8A0-AF116791C650}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.9296875" customWidth="1"/>
     <col min="2" max="2" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -616,4 +929,637 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146D947D-7436-4088-9EC1-4BE001760C36}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E26:E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="5"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="4" width="9.06640625" style="5"/>
+    <col min="5" max="5" width="26.06640625" customWidth="1"/>
+    <col min="6" max="6" width="10.53125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>900</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>1100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>1900</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="5">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>2200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>2400</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>2500</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>2800</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>3200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>3600</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="5">
+        <v>200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>4000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>5000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>5100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>5200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>5900</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>6100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>6600</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>7100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>7200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>7700</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>9100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <v>9200</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <v>9300</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G24" xr:uid="{146D947D-7436-4088-9EC1-4BE001760C36}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
+      <sortCondition ref="A1:A24"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/zwnl-2022.xlsx
+++ b/zwnl-2022.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9DF34D-3FCC-43D6-89D9-DCDE9276EF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F6756A-D2A0-40A2-A5D4-F6A0B9CC23CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2040" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="0" yWindow="2040" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
     <sheet name="QD Consists" sheetId="2" r:id="rId2"/>
+    <sheet name="QD" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'QD Consists'!$A$1:$G$24</definedName>
@@ -72,8 +73,92 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{C5F43FF0-24AC-478E-8FDA-769BBF38239D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Algemeen: Pax spawnt iets te vroeg
+HSL: te voeg. Verkeerde spoor?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{B8B24667-B926-43C9-96A9-7C2CCA42BE67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+GTW verkeerde texture Arriva, moet Rnet
+Ddr3a verkeerd aligned</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{34C0D5B0-915D-461E-83EB-C2ADB0F25E01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Grupo_STR, Kuju, RSItalia?, DTG KS en TGV</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
   <si>
     <t>Naam</t>
   </si>
@@ -325,6 +410,12 @@
     <t>0.25</t>
   </si>
   <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
@@ -389,13 +480,76 @@
   </si>
   <si>
     <t>TODO PCC Shuttle</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>6601 Bd-Ddr</t>
+  </si>
+  <si>
+    <t>- Bd
+- Zlw</t>
+  </si>
+  <si>
+    <t>Bd:
+- 1100</t>
+  </si>
+  <si>
+    <t>Zlw-Ddr:
+- G Mdbz
+- 1900 Wld
+- 5900 Wld-Ddzd
+- 6600 Ddzd-Ddr</t>
+  </si>
+  <si>
+    <t>Ddr:
+- G
+- 2400
+- 5000
+- 5100</t>
+  </si>
+  <si>
+    <t>Bd-Zlw:
+- 1900 Bda
+- 9100/9300 HSL
+- 900 Bda-Bdpb
+- 6600 Bdpb-Nvbro
+- G Zha-Zlw</t>
+  </si>
+  <si>
+    <t>Jaartal</t>
+  </si>
+  <si>
+    <t>Standaard includes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +578,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -467,6 +640,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -783,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4020EACE-717F-4B6E-B8A0-AF116791C650}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -935,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146D947D-7436-4088-9EC1-4BE001760C36}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E26:E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1439,117 +1619,147 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="G30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1562,4 +1772,109 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985C4FFC-4A4B-4FC3-AF11-94C400BCFF32}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.73046875" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/zwnl-2022.xlsx
+++ b/zwnl-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F6756A-D2A0-40A2-A5D4-F6A0B9CC23CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF65981-C341-4A7B-A834-86D8CD5136E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2040" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>Naam</t>
   </si>
@@ -392,9 +392,6 @@
     <t>6, 8</t>
   </si>
   <si>
-    <t>120, 220</t>
-  </si>
-  <si>
     <t>Passenger Intercity, Custom 6</t>
   </si>
   <si>
@@ -543,6 +540,93 @@
   </si>
   <si>
     <t>Standaard includes</t>
+  </si>
+  <si>
+    <t>2201 Vs-Rtd</t>
+  </si>
+  <si>
+    <t>- Vs
+- Gs
+- Bgn
+- Rsd
+- Ddr</t>
+  </si>
+  <si>
+    <t>Vs:
+- 6100 Vs2</t>
+  </si>
+  <si>
+    <t>Vs-Rsd:
+- 2200 Mdb
+- 2200 Lwd
+- G Lwd-Ha
+- 6100 Gs
+- G Bzl
+- G Krg
+- 2200 Kbd
+- G Rb
+- G Rb-Bgn
+- 2200 Bgn
+- 6100 Kraga
+- G Kraga-Rsd
+- 2500 Rsd</t>
+  </si>
+  <si>
+    <t>Rsd:
+- 2200 Rsd4a
+- 3600 Rsd3a
+- 5900 Rsd3b
+- G Esn ri Bd
+- G Bd ri Esn</t>
+  </si>
+  <si>
+    <t>Rsd-Ddr:
+- G Rsd-Odb
+- 5900 Zvb
+- 2200 Zlw
+- G Wld
+- 1900 Ddzd-Ddr</t>
+  </si>
+  <si>
+    <t>170, 220</t>
+  </si>
+  <si>
+    <t>Ddr:
+- 5100/5000 Ddr4a
+- 5900 Ddr3b
+- 6600 Ddr4b</t>
+  </si>
+  <si>
+    <t>Rtd:
+- 1000 Rtd11
+- 2400 Rtd6
+- 4000 Rtd16
+- 9200 Hsl-Rtd4</t>
+  </si>
+  <si>
+    <t>- G Rsd
+- G Zlw
+- G Kfhaz</t>
+  </si>
+  <si>
+    <t>- Rsd
+- Zlw
+- IJsm TODO Cast</t>
+  </si>
+  <si>
+    <t>Ddr-Rtd:
+- 2400 Zwd-Ddr2
+- 5000 Zwd-Ddr3a
+- G Kfhaz
+- 5200 2x Brd
+- 2200 Brd
+- G Brd
+- 900 Rlb ri Rtd
+- 5100 Rtz
+- 9100/9300 Rtz
+- G Rtb
+- 5000 Rtd
+- G Rtd</t>
   </si>
 </sst>
 </file>
@@ -624,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -647,6 +731,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1116,7 +1203,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1223,7 +1310,7 @@
         <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1243,7 +1330,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1263,7 +1350,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="5">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1283,7 +1370,7 @@
         <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1323,7 +1410,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="5">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1340,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="5">
         <v>200</v>
@@ -1560,7 +1647,7 @@
         <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1574,7 +1661,7 @@
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1594,7 +1681,7 @@
         <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1619,27 +1706,27 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
         <v>92</v>
@@ -1647,124 +1734,124 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G24" xr:uid="{146D947D-7436-4088-9EC1-4BE001760C36}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G36">
       <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
@@ -1776,100 +1863,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985C4FFC-4A4B-4FC3-AF11-94C400BCFF32}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.73046875" customWidth="1"/>
     <col min="2" max="2" width="17.53125" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C2" s="3">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/zwnl-2022.xlsx
+++ b/zwnl-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF65981-C341-4A7B-A834-86D8CD5136E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5097D526-1E6D-4CA2-AC7D-5E0A88C8561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="2512" yWindow="1755" windowWidth="15248" windowHeight="11648" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
   <si>
     <t>Naam</t>
   </si>
@@ -627,6 +627,242 @@
 - G Rtb
 - 5000 Rtd
 - G Rtd</t>
+  </si>
+  <si>
+    <t>3618 Rsd-Zl
+18-11-2022</t>
+  </si>
+  <si>
+    <t>Rsd 5:46-5:57
+Bd 6:15-6:20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1100:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1117
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>900:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> geen
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2200:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2204
+2223
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2550:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> geen
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3600:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3613
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5900:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5916
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6100: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>geen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6600:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6616
+6613
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9200:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> geen
+</t>
+    </r>
+  </si>
+  <si>
+    <t>- 915 Bd
+- 2221 Rsd
+- 3620 Rsd
+TODO reserve</t>
+  </si>
+  <si>
+    <t>TODO speler AI passagiers aan/uit</t>
   </si>
 </sst>
 </file>
@@ -708,31 +944,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,148 +1298,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4020EACE-717F-4B6E-B8A0-AF116791C650}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.9296875" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.06640625" customWidth="1"/>
+    <col min="1" max="1" width="18.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.06640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="D2" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="D6" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="D7" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D20" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1208,11 +1489,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="5"/>
+    <col min="1" max="1" width="9.06640625" style="4"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="4" width="9.06640625" style="5"/>
+    <col min="3" max="4" width="9.06640625" style="4"/>
     <col min="5" max="5" width="26.06640625" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.53125" style="4" customWidth="1"/>
     <col min="7" max="7" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1223,16 +1504,16 @@
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1240,16 +1521,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>900</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1257,16 +1538,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1274,16 +1555,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1100</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1291,22 +1572,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1900</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>120</v>
       </c>
       <c r="G5" t="s">
@@ -1314,56 +1595,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2200</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2400</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>2500</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1374,62 +1655,62 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>2800</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>3200</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>3600</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>200</v>
       </c>
       <c r="G11" t="s">
@@ -1437,156 +1718,156 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>4000</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>6</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>5000</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>5100</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>5200</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>5900</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>6100</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>6600</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>7</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>7100</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1594,16 +1875,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>7200</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1611,36 +1892,36 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>7700</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>9100</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1651,7 +1932,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>9200</v>
       </c>
       <c r="B23" t="s">
@@ -1665,16 +1946,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>9300</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1685,27 +1966,27 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>3</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>7</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
@@ -1719,7 +2000,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B27" t="s">
@@ -1733,7 +2014,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B28" t="s">
@@ -1747,7 +2028,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B29" t="s">
@@ -1761,7 +2042,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B30" t="s">
@@ -1775,7 +2056,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B31" t="s">
@@ -1789,7 +2070,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B32" t="s">
@@ -1803,7 +2084,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B33" t="s">
@@ -1817,7 +2098,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B34" t="s">
@@ -1831,7 +2112,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
@@ -1865,25 +2146,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985C4FFC-4A4B-4FC3-AF11-94C400BCFF32}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.73046875" customWidth="1"/>
-    <col min="2" max="2" width="17.53125" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.46484375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1891,10 +2174,10 @@
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>3022</v>
       </c>
     </row>
@@ -1902,10 +2185,10 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1913,55 +2196,49 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1969,7 +2246,7 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1977,7 +2254,7 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1995,7 +2272,7 @@
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
